--- a/StructureDefinition-ext-R5-ElementDefinition.pattern.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.pattern.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-ElementDefinition.pattern.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.pattern.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `ElementDefinition.pattern[x]` 0..1 `Address, Age, Annotation, Attachment, base64Binary, boolean, canonical, code, CodeableConcept, Coding, ContactDetail, ContactPoint, Contributor, Count, DataRequirement, date, dateTime, decimal, Distance, Dosage, Duration, Expression, HumanName, id, Identifier, instant, integer, markdown, Meta, Money, oid, ParameterDefinition, Period, positiveInt, Quantity, Range, Ratio, Reference, RelatedArtifact, SampledData, Signature, string, time, Timing, TriggerDefinition, unsignedInt, uri, url, UsageContext, uuid`
 Following are the generation technical comments:
 Note that the target element context `ElementDefinition.pattern[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ElementDefinition`.
-Element `ElementDefinition.pattern[x]` is mapped to FHIR R4 element `ElementDefinition.pattern[x]`.
+Element `ElementDefinition.pattern[x]` has is mapped to FHIR R4 element `ElementDefinition.pattern[x]`, but has no comparisons.
 Note that the target element context `ElementDefinition.pattern[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ElementDefinition`.</t>
   </si>
   <si>
@@ -484,6 +484,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.daysOfWeek</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:daysOfWeek.value[x]</t>
   </si>
   <si>
@@ -527,6 +530,9 @@
     <t>Extension.extension:availableTime.extension:allDay.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.allDay</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:allDay.value[x]</t>
   </si>
   <si>
@@ -561,6 +567,9 @@
     <t>Extension.extension:availableTime.extension:availableStartTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableStartTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableStartTime.value[x]</t>
   </si>
   <si>
@@ -592,6 +601,9 @@
     <t>Extension.extension:availableTime.extension:availableEndTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.availableTime.availableEndTime</t>
+  </si>
+  <si>
     <t>Extension.extension:availableTime.extension:availableEndTime.value[x]</t>
   </si>
   <si>
@@ -654,6 +666,9 @@
     <t>Extension.extension:notAvailableTime.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.description</t>
+  </si>
+  <si>
     <t>Extension.extension:notAvailableTime.extension:description.value[x]</t>
   </si>
   <si>
@@ -679,6 +694,9 @@
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Availability.notAvailableTime.during</t>
   </si>
   <si>
     <t>Extension.extension:notAvailableTime.extension:during.value[x]</t>
@@ -2675,7 +2693,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2737,10 +2755,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2763,7 +2781,7 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>138</v>
@@ -2796,13 +2814,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2840,13 +2858,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2871,14 +2889,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2947,7 +2965,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>142</v>
@@ -3050,7 +3068,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>144</v>
@@ -3155,7 +3173,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
@@ -3198,7 +3216,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3260,10 +3278,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3286,13 +3304,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3363,13 +3381,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3394,16 +3412,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3472,7 +3490,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>142</v>
@@ -3575,7 +3593,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -3680,7 +3698,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>146</v>
@@ -3723,7 +3741,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3785,10 +3803,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3811,16 +3829,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3890,13 +3908,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3921,16 +3939,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3999,7 +4017,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>142</v>
@@ -4102,7 +4120,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>144</v>
@@ -4207,7 +4225,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>146</v>
@@ -4250,7 +4268,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4312,10 +4330,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4338,16 +4356,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4417,7 +4435,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4522,7 +4540,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4548,7 +4566,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>123</v>
@@ -4625,13 +4643,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4656,14 +4674,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4732,7 +4750,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4835,7 +4853,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4938,13 +4956,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4969,16 +4987,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5047,7 +5065,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>142</v>
@@ -5150,7 +5168,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>144</v>
@@ -5255,7 +5273,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>146</v>
@@ -5298,7 +5316,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5360,10 +5378,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5389,13 +5407,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5465,13 +5483,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5496,14 +5514,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5572,7 +5590,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>142</v>
@@ -5675,7 +5693,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>144</v>
@@ -5780,7 +5798,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>146</v>
@@ -5823,7 +5841,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5885,10 +5903,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5911,13 +5929,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5988,7 +6006,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6031,7 +6049,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6093,7 +6111,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6119,7 +6137,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>123</v>
@@ -6327,7 +6345,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-ElementDefinition.pattern.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.pattern.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="218">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -495,15 +495,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:availableTime.extension:allDay</t>
@@ -1059,8 +1050,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2814,13 +2805,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2858,13 +2849,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2889,14 +2880,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2965,7 +2956,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>142</v>
@@ -3068,7 +3059,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>144</v>
@@ -3173,7 +3164,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
@@ -3216,7 +3207,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3278,7 +3269,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>149</v>
@@ -3304,13 +3295,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3381,13 +3372,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3412,16 +3403,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3490,7 +3481,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>142</v>
@@ -3593,7 +3584,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -3698,7 +3689,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>146</v>
@@ -3741,7 +3732,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3803,7 +3794,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>149</v>
@@ -3829,16 +3820,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3908,13 +3899,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3939,16 +3930,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4017,7 +4008,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>142</v>
@@ -4120,7 +4111,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>144</v>
@@ -4225,7 +4216,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>146</v>
@@ -4268,7 +4259,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4330,7 +4321,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>149</v>
@@ -4356,16 +4347,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4435,7 +4426,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4540,7 +4531,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4566,7 +4557,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>123</v>
@@ -4643,13 +4634,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4674,14 +4665,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4750,7 +4741,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4853,7 +4844,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4956,13 +4947,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4987,16 +4978,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5065,7 +5056,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>142</v>
@@ -5168,7 +5159,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>144</v>
@@ -5273,7 +5264,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>146</v>
@@ -5316,7 +5307,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5378,7 +5369,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>149</v>
@@ -5407,13 +5398,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5483,13 +5474,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5514,14 +5505,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5590,7 +5581,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>142</v>
@@ -5693,7 +5684,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>144</v>
@@ -5798,7 +5789,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>146</v>
@@ -5841,7 +5832,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5903,7 +5894,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>149</v>
@@ -5929,13 +5920,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6006,7 +5997,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6049,7 +6040,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6111,7 +6102,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6137,7 +6128,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>123</v>
@@ -6345,7 +6336,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-ElementDefinition.pattern.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.pattern.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
 *  R4: `ElementDefinition.pattern[x]` 0..1 `Address, Age, Annotation, Attachment, base64Binary, boolean, canonical, code, CodeableConcept, Coding, ContactDetail, ContactPoint, Contributor, Count, DataRequirement, date, dateTime, decimal, Distance, Dosage, Duration, Expression, HumanName, id, Identifier, instant, integer, markdown, Meta, Money, oid, ParameterDefinition, Period, positiveInt, Quantity, Range, Ratio, Reference, RelatedArtifact, SampledData, Signature, string, time, Timing, TriggerDefinition, unsignedInt, uri, url, UsageContext, uuid`
 Following are the generation technical comments:
 Note that the target element context `ElementDefinition.pattern[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ElementDefinition`.
-Element `ElementDefinition.pattern[x]` has is mapped to FHIR R4 element `ElementDefinition.pattern[x]`, but has no comparisons.
+Element `ElementDefinition.pattern[x]` is mapped to FHIR R4 element `ElementDefinition.pattern[x]` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `ElementDefinition.pattern[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `ElementDefinition`.</t>
   </si>
   <si>
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -495,6 +495,15 @@
   <si>
     <t xml:space="preserve">code
 </t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
   </si>
   <si>
     <t>Extension.extension:availableTime.extension:allDay</t>
@@ -1050,8 +1059,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.84375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2805,13 +2814,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -2849,13 +2858,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2880,14 +2889,14 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2956,7 +2965,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>142</v>
@@ -3059,7 +3068,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>144</v>
@@ -3164,7 +3173,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>146</v>
@@ -3207,7 +3216,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3269,7 +3278,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>149</v>
@@ -3295,13 +3304,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3372,13 +3381,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3403,16 +3412,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3481,7 +3490,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>142</v>
@@ -3584,7 +3593,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -3689,7 +3698,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>146</v>
@@ -3732,7 +3741,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3794,7 +3803,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>149</v>
@@ -3820,16 +3829,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3899,13 +3908,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3930,16 +3939,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4008,7 +4017,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>142</v>
@@ -4111,7 +4120,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>144</v>
@@ -4216,7 +4225,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>146</v>
@@ -4259,7 +4268,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4321,7 +4330,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>149</v>
@@ -4347,16 +4356,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4426,7 +4435,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4531,7 +4540,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4557,7 +4566,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>123</v>
@@ -4634,13 +4643,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4665,14 +4674,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4741,7 +4750,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4844,7 +4853,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4947,13 +4956,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -4978,16 +4987,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5056,7 +5065,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>142</v>
@@ -5159,7 +5168,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>144</v>
@@ -5264,7 +5273,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>146</v>
@@ -5307,7 +5316,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5369,7 +5378,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>149</v>
@@ -5398,13 +5407,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5474,13 +5483,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5505,14 +5514,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5581,7 +5590,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>142</v>
@@ -5684,7 +5693,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>144</v>
@@ -5789,7 +5798,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>146</v>
@@ -5832,7 +5841,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5894,7 +5903,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>149</v>
@@ -5920,13 +5929,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5997,7 +6006,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6040,7 +6049,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6102,7 +6111,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>122</v>
@@ -6128,7 +6137,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>123</v>
@@ -6336,7 +6345,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>123</v>
